--- a/Sample Pipe Rates.xlsx
+++ b/Sample Pipe Rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deggerman\Desktop\Hephaestus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D398AFBC-2F40-4AAA-A22E-EBCBD809451B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0617826F-D30C-47A1-9EDB-140BF3016521}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" activeTab="1" xr2:uid="{AF36702E-BA0D-41D0-A5BB-67EE9ECA9573}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{AF36702E-BA0D-41D0-A5BB-67EE9ECA9573}"/>
   </bookViews>
   <sheets>
     <sheet name="Capacities" sheetId="1" r:id="rId1"/>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9D1C41-7201-485F-B2D1-9F88DEDFF17A}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB5F96A-6929-4133-95B5-75A8600DD0FE}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>

--- a/Sample Pipe Rates.xlsx
+++ b/Sample Pipe Rates.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deggerman\Desktop\Hephaestus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0617826F-D30C-47A1-9EDB-140BF3016521}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59222384-3EA6-408A-BE37-A42E7CEA264E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{AF36702E-BA0D-41D0-A5BB-67EE9ECA9573}"/>
+    <workbookView xWindow="3630" yWindow="1680" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{AF36702E-BA0D-41D0-A5BB-67EE9ECA9573}"/>
   </bookViews>
   <sheets>
     <sheet name="Capacities" sheetId="1" r:id="rId1"/>
     <sheet name="Pipes" sheetId="2" r:id="rId2"/>
+    <sheet name="IE Matrix" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>Pipeline</t>
   </si>
@@ -454,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9D1C41-7201-485F-B2D1-9F88DEDFF17A}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,4 +759,214 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF4B506-8F28-4D22-9817-17B1BE00985C}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>